--- a/subDM/subNormDM/metricasDistanciaEcu.xlsx
+++ b/subDM/subNormDM/metricasDistanciaEcu.xlsx
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S169" sqref="R4:S169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10947,7 +10947,7 @@
         <v>254.96385542168676</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G169)</f>
         <v>0.32682970193036842</v>
       </c>
       <c r="H171" s="2">
